--- a/public/assets/files/contohData.xlsx
+++ b/public/assets/files/contohData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\semester 8 pnj\skripsi\coding\siami\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF0C7E-B3EE-4F8F-BCA4-4D0276DFA9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B00DD5-C85C-4C9C-B534-4820D8365F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0589E19E-A25A-489D-BE27-23C6895084C3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>nama</t>
   </si>
@@ -61,21 +61,6 @@
     <t>auditee</t>
   </si>
   <si>
-    <t>password124</t>
-  </si>
-  <si>
-    <t>password125</t>
-  </si>
-  <si>
-    <t>password126</t>
-  </si>
-  <si>
-    <t>alucard</t>
-  </si>
-  <si>
-    <t>alucard@gmail.com</t>
-  </si>
-  <si>
     <t>tidak aktif</t>
   </si>
   <si>
@@ -88,22 +73,25 @@
     <t>manajemen</t>
   </si>
   <si>
-    <t>nana</t>
-  </si>
-  <si>
-    <t>nana@gmail.com</t>
-  </si>
-  <si>
-    <t>layla</t>
-  </si>
-  <si>
-    <t>layla@gmail.com</t>
-  </si>
-  <si>
-    <t>brodi</t>
-  </si>
-  <si>
-    <t>brodi@gmail.com</t>
+    <t>auditee1</t>
+  </si>
+  <si>
+    <t>auditor2</t>
+  </si>
+  <si>
+    <t>auditor1</t>
+  </si>
+  <si>
+    <t>auditee@pnj.ac.id</t>
+  </si>
+  <si>
+    <t>manajemen@pnj.ac.id</t>
+  </si>
+  <si>
+    <t>auditor1@pnj.ac.id</t>
+  </si>
+  <si>
+    <t>auditor2@pnj.ac.id</t>
   </si>
 </sst>
 </file>
@@ -475,7 +463,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,16 +499,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,13 +525,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -552,21 +540,21 @@
         <v>1234</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -575,21 +563,21 @@
         <v>1234</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -598,7 +586,7 @@
         <v>1234</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
